--- a/1. Arbitrary Array (3,4Array)/2Array_FFR_Relative_Error.xlsx
+++ b/1. Arbitrary Array (3,4Array)/2Array_FFR_Relative_Error.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postechackr-my.sharepoint.com/personal/junsu0925_postech_ac_kr/Documents/Graduate/X - 연구/2. 2D FFR/FFR Array Debug/GitHub/1. Arbitrary Array (3,4Array)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - postech.ac.kr\Graduate\X - 연구\2. 2D FFR\FFR Array Debug\GitHub\1. Arbitrary Array (3,4Array)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B5A57F37-8BAE-447A-A77F-F1E2B3A050C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{85C41EAB-04FC-4B70-A036-0E41AD8708AC}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{B5A57F37-8BAE-447A-A77F-F1E2B3A050C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1FD2E466-93FA-4881-ACF2-7A3D42D55D04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="17385" firstSheet="1" activeTab="7" xr2:uid="{F809ED7E-B7F2-4D14-9E2F-854BB1B1388F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="17385" xr2:uid="{F809ED7E-B7F2-4D14-9E2F-854BB1B1388F}"/>
   </bookViews>
   <sheets>
     <sheet name="Z_11" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
-  <si>
-    <t>Frequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>R (COMSOL)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>Average relative error of X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency [Hz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9057BAD-8FBC-4D49-B900-AD9D698F52D5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
@@ -458,111 +458,790 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>6.0462483272506903E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.21228917565753999</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>7.3961793394412695E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.231704128949942</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>8.8754035749410404E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.25034765032196099</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>0.10477589611945599</v>
+      </c>
+      <c r="C5">
+        <v>0.26832422087464503</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>0.122233865580052</v>
+      </c>
+      <c r="C6">
+        <v>0.28570270477859999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>0.141341210156534</v>
+      </c>
+      <c r="C7">
+        <v>0.30231298812935797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>0.16227562126195899</v>
+      </c>
+      <c r="C8">
+        <v>0.31800306199675299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>0.18540740088382299</v>
+      </c>
+      <c r="C9">
+        <v>0.33240225079018598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>0.210829788491423</v>
+      </c>
+      <c r="C10">
+        <v>0.344698482179293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>0.238104375486654</v>
+      </c>
+      <c r="C11">
+        <v>0.35411761532421798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.26652139868774899</v>
+      </c>
+      <c r="C12">
+        <v>0.36022098226159999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>0.29541372563761398</v>
+      </c>
+      <c r="C13">
+        <v>0.36287373193140499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>0.324079973305747</v>
+      </c>
+      <c r="C14">
+        <v>0.36195703237730897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>0.35159804855312099</v>
+      </c>
+      <c r="C15">
+        <v>0.357860316829334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>0.377890876003311</v>
+      </c>
+      <c r="C16">
+        <v>0.35143064940229102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>0.40327128679489099</v>
+      </c>
+      <c r="C17">
+        <v>0.34253675979326897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>0.42710339686107601</v>
+      </c>
+      <c r="C18">
+        <v>0.331027776295723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>0.449187357045433</v>
+      </c>
+      <c r="C19">
+        <v>0.31749599824708902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>0.46969274533946798</v>
+      </c>
+      <c r="C20">
+        <v>0.30170590443623901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>0.48768057573350398</v>
+      </c>
+      <c r="C21">
+        <v>0.28341389729932698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>0.50232853847120595</v>
+      </c>
+      <c r="C22">
+        <v>0.26358252198715598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>0.51385577467847099</v>
+      </c>
+      <c r="C23">
+        <v>0.243123569449397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>0.52239316893313303</v>
+      </c>
+      <c r="C24">
+        <v>0.22223569088381201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>0.52757553680563896</v>
+      </c>
+      <c r="C25">
+        <v>0.201533099284776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>0.52991464248398801</v>
+      </c>
+      <c r="C26">
+        <v>0.18214329291860901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>0.53049170141720203</v>
+      </c>
+      <c r="C27">
+        <v>0.16401333293790399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>0.52912954695518399</v>
+      </c>
+      <c r="C28">
+        <v>0.14670949874336001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>0.52573976562555902</v>
+      </c>
+      <c r="C29">
+        <v>0.13104065114268301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>0.52143347261988904</v>
+      </c>
+      <c r="C30">
+        <v>0.117212012608816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>0.51635657084845399</v>
+      </c>
+      <c r="C31">
+        <v>0.104379462071792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>0.50992278493898202</v>
+      </c>
+      <c r="C32">
+        <v>9.2876767636178303E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="B34">
+        <v>2.9411228563661001E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.102347295037009</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DFAEB1-B984-4ECE-B7FF-70A9C3A4618A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>-9.7001919676494394E-2</v>
+      </c>
+      <c r="C2">
+        <v>-6.8436364088511406E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>-0.11204483108487499</v>
+      </c>
+      <c r="C3">
+        <v>-6.3462002877863202E-2</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>-0.126344578656894</v>
+      </c>
+      <c r="C4">
+        <v>-5.5545848635550697E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>-0.13930365565886799</v>
+      </c>
+      <c r="C5">
+        <v>-4.4927323421291E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>-0.150417670763103</v>
+      </c>
+      <c r="C6">
+        <v>-3.1822473586673998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>-0.15899354222754999</v>
+      </c>
+      <c r="C7">
+        <v>-1.65970312089572E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>-0.16453566036303799</v>
+      </c>
+      <c r="C8">
+        <v>-1.48631505050887E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>-0.16725046356054299</v>
+      </c>
+      <c r="C9">
+        <v>1.6687125458928701E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>-0.16729263214804499</v>
+      </c>
+      <c r="C10">
+        <v>3.3610795953181699E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>-0.164600173570424</v>
+      </c>
+      <c r="C11">
+        <v>4.9956327818032498E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>-0.159952379903092</v>
+      </c>
+      <c r="C12">
+        <v>6.5066532242793906E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>-0.154013002596851</v>
+      </c>
+      <c r="C13">
+        <v>7.9424792898693197E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>-0.14636599471667899</v>
+      </c>
+      <c r="C14">
+        <v>9.3290950817841403E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>-0.13698040372794201</v>
+      </c>
+      <c r="C15">
+        <v>0.106221131258769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>-0.12600101264894101</v>
+      </c>
+      <c r="C16">
+        <v>0.11835274259324401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>-0.112767308878022</v>
+      </c>
+      <c r="C17">
+        <v>0.12955592027698201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>-9.69722071158097E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.13869047081628999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>-7.9340330173038501E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.144639310251411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>-6.0961293008992501E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.14703564090636501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>-4.2554453129763498E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.14578180212668301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>-2.5312868227684401E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.14048926395032599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>-1.10316459388722E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.13216611237442699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>3.6433338736787502E-4</v>
+      </c>
+      <c r="C24">
+        <v>0.122678166023515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>9.4586744114946303E-3</v>
+      </c>
+      <c r="C25">
+        <v>0.11216388608385799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>1.5530004876592399E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.101213760967324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>1.9307410451797302E-2</v>
+      </c>
+      <c r="C27">
+        <v>9.13571869477416E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>2.2126722687481701E-2</v>
+      </c>
+      <c r="C28">
+        <v>8.2206458717367703E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>2.3538074294314201E-2</v>
+      </c>
+      <c r="C29">
+        <v>7.3234150984899798E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>2.3528551922969099E-2</v>
+      </c>
+      <c r="C30">
+        <v>6.5300448758605606E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>2.3087495183983599E-2</v>
+      </c>
+      <c r="C31">
+        <v>5.8369612568264499E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>2.21146490121737E-2</v>
+      </c>
+      <c r="C32">
+        <v>5.1719691505010497E-2</v>
       </c>
     </row>
   </sheetData>
@@ -574,55 +1253,396 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE8B59-B5F2-4112-9B5D-DEF7FEF31F2F}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>-2.85692122306858E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.6414802102607501E-3</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>-3.0567299881847101E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.6285409360212601E-3</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>-3.1596932759586603E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.23238939796371E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>-3.1527252876843999E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.8562741523005001E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>-3.0127675474546901E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.52495484455314E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>-2.70540572965202E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.2059015725786601E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>-2.2177886572699802E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.8428237033429902E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>-1.56171829512558E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.38447061422685E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>-7.5171663781321996E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.7833705637618497E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>1.75920234233871E-3</v>
+      </c>
+      <c r="C11">
+        <v>4.9729523754542301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>1.12808937929139E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.9136112538816903E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>2.0253328131846899E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.6381193227124203E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>2.8342212873287299E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.16792546812065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>3.4830942498067799E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.5259428896650798E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>3.93547166655678E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.8097876971115199E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>4.2389145513653699E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.07130831783125E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>4.3900150098136297E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.30801527584545E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>4.3768183857014198E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.8160964490992602E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>4.2631726463384798E-2</v>
+      </c>
+      <c r="C20">
+        <v>-7.2004019245307802E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>4.0695684630284099E-2</v>
+      </c>
+      <c r="C21">
+        <v>-6.8644375049708899E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>3.7708301268852197E-2</v>
+      </c>
+      <c r="C22">
+        <v>-1.24066099002344E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>3.40601910088245E-2</v>
+      </c>
+      <c r="C23">
+        <v>-1.6951435334653701E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>3.0114561160878298E-2</v>
+      </c>
+      <c r="C24">
+        <v>-2.07678687668095E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>2.5644030019379899E-2</v>
+      </c>
+      <c r="C25">
+        <v>-2.39248139536248E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>2.0780082529298201E-2</v>
+      </c>
+      <c r="C26">
+        <v>-2.6004079760589299E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>1.6057360192654101E-2</v>
+      </c>
+      <c r="C27">
+        <v>-2.70530744244202E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>1.1509886598123201E-2</v>
+      </c>
+      <c r="C28">
+        <v>-2.7420215386047199E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>7.0408770537011096E-3</v>
+      </c>
+      <c r="C29">
+        <v>-2.6926647878013001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>3.1597382150345102E-3</v>
+      </c>
+      <c r="C30">
+        <v>-2.5466887593582298E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>1.36035029801712E-4</v>
+      </c>
+      <c r="C31">
+        <v>-2.36228137045018E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>-2.4127547400232901E-3</v>
+      </c>
+      <c r="C32">
+        <v>-2.16030346666479E-2</v>
       </c>
     </row>
   </sheetData>
@@ -633,55 +1653,396 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F55ABFB-14F1-408C-BBDD-4655732396A2}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>-3.7269121748472897E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.9072891575621301E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>-3.25365605108449E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.8572898832231299E-2</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>-2.5326438032975199E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.6881259832475201E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>-1.6345901382462301E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.3502501384269097E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>-5.8263983579840599E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.8496385755445801E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>6.26599669650063E-3</v>
+      </c>
+      <c r="C7">
+        <v>6.1288234358927399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>1.91791475782284E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.1291014838046803E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>3.2331381995186197E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.8621712644905802E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>4.55668769428818E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.2930585125480697E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>5.7854035187239701E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.3592469226458201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>6.7793376298990099E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.1058806382883199E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>7.4855972380324501E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.61411864623177E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>7.8410492972750503E-2</v>
+      </c>
+      <c r="C14">
+        <v>-9.1389675949051397E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>7.7222519621730407E-2</v>
+      </c>
+      <c r="C15">
+        <v>-1.9045840709559499E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>7.1242424853622102E-2</v>
+      </c>
+      <c r="C16">
+        <v>-3.6299862456768098E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>6.1255590417246902E-2</v>
+      </c>
+      <c r="C17">
+        <v>-5.1764486950500697E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>4.71280050603528E-2</v>
+      </c>
+      <c r="C18">
+        <v>-6.4619153978776697E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>2.9610253248343502E-2</v>
+      </c>
+      <c r="C19">
+        <v>-7.27422410599355E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>1.13037451739994E-2</v>
+      </c>
+      <c r="C20">
+        <v>-7.5389454407987194E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>-6.5253695244586098E-3</v>
+      </c>
+      <c r="C21">
+        <v>-7.3505353415907498E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>-2.3071903834734699E-2</v>
+      </c>
+      <c r="C22">
+        <v>-6.6656002696933295E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>-3.5669609627345701E-2</v>
+      </c>
+      <c r="C23">
+        <v>-5.5554881733253902E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>-4.38092195172472E-2</v>
+      </c>
+      <c r="C24">
+        <v>-4.3189747189943901E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>-4.8783462824242903E-2</v>
+      </c>
+      <c r="C25">
+        <v>-3.0224081128115199E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>-4.97163104637477E-2</v>
+      </c>
+      <c r="C26">
+        <v>-1.6971795169167699E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>-4.7009910085189198E-2</v>
+      </c>
+      <c r="C27">
+        <v>-5.8636800341318202E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>-4.30228378015294E-2</v>
+      </c>
+      <c r="C28">
+        <v>2.90810538303372E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>-3.7680757784574498E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.03944802351349E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>-3.0906991192583302E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.5335823943774E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>-2.47764781145021E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.7684517539480801E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>-1.9434291395275399E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.9186618442153299E-2</v>
       </c>
     </row>
   </sheetData>
@@ -692,55 +2053,396 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6827612-5E8D-402B-964C-C36BB43015D5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>-1.2688109494681701E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.8656292263061602E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>4.90468758800833E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.97617496365366E-2</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>1.16477122086727E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.8543433846288201E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>1.78590899375481E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.4856958696048301E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>2.2802759365489599E-2</v>
+      </c>
+      <c r="C6">
+        <v>9.1272141385600296E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>2.58695030322529E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.5365904982431E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>2.5989565749614699E-2</v>
+      </c>
+      <c r="C8">
+        <v>-7.2108735201606104E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>2.2921640969483102E-2</v>
+      </c>
+      <c r="C9">
+        <v>-1.55823638792611E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>1.7185454102648701E-2</v>
+      </c>
+      <c r="C10">
+        <v>-2.2707123407197501E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>8.8466047815444794E-3</v>
+      </c>
+      <c r="C11">
+        <v>-2.76946946417817E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>-9.7084948322590599E-4</v>
+      </c>
+      <c r="C12">
+        <v>-2.9050019960935598E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>-1.02579151285469E-2</v>
+      </c>
+      <c r="C13">
+        <v>-2.6862654996058302E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>-1.83289047115167E-2</v>
+      </c>
+      <c r="C14">
+        <v>-2.18768586406481E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>-2.41685324431264E-2</v>
+      </c>
+      <c r="C15">
+        <v>-1.40967065132056E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>-2.6352876130535999E-2</v>
+      </c>
+      <c r="C16">
+        <v>-5.0267010479817797E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>-2.54507430164666E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.51435784079146E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>-2.1988383666159801E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.12433237451113E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>-1.5835586196039801E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.69618781364697E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>-8.7043463779418496E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.94618235066535E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>-2.0157760311686401E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.9602778356368599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>4.1609243964479802E-3</v>
+      </c>
+      <c r="C22">
+        <v>1.7631550887823099E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>8.5904534534437804E-3</v>
+      </c>
+      <c r="C23">
+        <v>1.35982544121858E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>1.0723240637955199E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.1838701044008701E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>1.1530881428558499E-2</v>
+      </c>
+      <c r="C25">
+        <v>5.0527986794089404E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>1.0947882657482699E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.10588270673469E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>9.11574778250142E-3</v>
+      </c>
+      <c r="C27">
+        <v>-1.72090771475142E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>7.1646717324013896E-3</v>
+      </c>
+      <c r="C28">
+        <v>-3.35018060931562E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>5.2049347382340204E-3</v>
+      </c>
+      <c r="C29">
+        <v>-4.4168884294452596E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>3.1710482798095901E-3</v>
+      </c>
+      <c r="C30">
+        <v>-4.6630819283971503E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>1.70476332580642E-3</v>
+      </c>
+      <c r="C31">
+        <v>-4.222503753703E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>7.3273639242218502E-4</v>
+      </c>
+      <c r="C32">
+        <v>-3.7419086256446099E-3</v>
       </c>
     </row>
   </sheetData>
@@ -751,55 +2453,396 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B854B3-134C-4979-8C78-4FD7745E051D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>0.193978791473149</v>
+      </c>
+      <c r="C2">
+        <v>0.394156389957739</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>0.22252089513699999</v>
+      </c>
+      <c r="C3">
+        <v>0.41665851529770098</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>0.25070243746237197</v>
+      </c>
+      <c r="C4">
+        <v>0.43645607817543702</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>0.27860291497594902</v>
+      </c>
+      <c r="C5">
+        <v>0.45403462528962002</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>0.30607541939050398</v>
+      </c>
+      <c r="C6">
+        <v>0.46915344854397401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>0.33228223250397698</v>
+      </c>
+      <c r="C7">
+        <v>0.48213932923337999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>0.35721605274171198</v>
+      </c>
+      <c r="C8">
+        <v>0.493993171698759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>0.381365237066072</v>
+      </c>
+      <c r="C9">
+        <v>0.50476323909752796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>0.40414003766197198</v>
+      </c>
+      <c r="C10">
+        <v>0.51439502573588802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>0.42523745588329998</v>
+      </c>
+      <c r="C11">
+        <v>0.52410970236481302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.44568369135958302</v>
+      </c>
+      <c r="C12">
+        <v>0.534668554143505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>0.46594531215368401</v>
+      </c>
+      <c r="C13">
+        <v>0.54583049962706898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>0.48604380927768998</v>
+      </c>
+      <c r="C14">
+        <v>0.55828951142909899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>0.50759434566407102</v>
+      </c>
+      <c r="C15">
+        <v>0.57286796863824896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>0.53246174069250995</v>
+      </c>
+      <c r="C16">
+        <v>0.58835456402249997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>0.56071856304033196</v>
+      </c>
+      <c r="C17">
+        <v>0.60320781239346299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>0.59276234713242204</v>
+      </c>
+      <c r="C18">
+        <v>0.61695512533238395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>0.62956685292936299</v>
+      </c>
+      <c r="C19">
+        <v>0.62740315726569895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>0.66916171179846995</v>
+      </c>
+      <c r="C20">
+        <v>0.63169957208098604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>0.708815177851017</v>
+      </c>
+      <c r="C21">
+        <v>0.62998914139201601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>0.74762690061919301</v>
+      </c>
+      <c r="C22">
+        <v>0.62247882774583996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>0.78326531750408701</v>
+      </c>
+      <c r="C23">
+        <v>0.60896492364236199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>0.81372098770213896</v>
+      </c>
+      <c r="C24">
+        <v>0.59192708159417595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>0.83962928519805002</v>
+      </c>
+      <c r="C25">
+        <v>0.57352347235407897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>0.86140750099644603</v>
+      </c>
+      <c r="C26">
+        <v>0.554536564384424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>0.87952367230375506</v>
+      </c>
+      <c r="C27">
+        <v>0.53616715175526497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>0.89510005884408905</v>
+      </c>
+      <c r="C28">
+        <v>0.51897887735440895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>0.90897571191747395</v>
+      </c>
+      <c r="C29">
+        <v>0.50304555306709697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>0.92202274213371804</v>
+      </c>
+      <c r="C30">
+        <v>0.48803654281383702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>0.93422690846087297</v>
+      </c>
+      <c r="C31">
+        <v>0.47321095773689198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>0.94534967123416103</v>
+      </c>
+      <c r="C32">
+        <v>0.45889042496638899</v>
       </c>
     </row>
   </sheetData>
@@ -810,55 +2853,397 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63729DFB-4A9E-464E-8AC2-293B69127AAE}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>7.1994078585324098E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.4976097147270798E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>8.1237137310513602E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.60430947702051E-2</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>9.0337630575887104E-2</v>
+      </c>
+      <c r="C4">
+        <v>7.6521651135878999E-2</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>9.9671980705702004E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.6538432796977293E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>0.10936604582775999</v>
+      </c>
+      <c r="C6">
+        <v>7.5718116937992005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>0.11916372364522999</v>
+      </c>
+      <c r="C7">
+        <v>7.4009536566334105E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>0.129271212398473</v>
+      </c>
+      <c r="C8">
+        <v>7.1499018987669194E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>0.13978903764560799</v>
+      </c>
+      <c r="C9">
+        <v>6.7622857513690293E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>0.15005828359270501</v>
+      </c>
+      <c r="C10">
+        <v>6.2061446175602497E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>0.159724587066566</v>
+      </c>
+      <c r="C11">
+        <v>5.5146308237481803E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.168765415777265</v>
+      </c>
+      <c r="C12">
+        <v>4.6804392468616701E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>0.176562607865481</v>
+      </c>
+      <c r="C13">
+        <v>3.6971942179296599E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>0.182681165805651</v>
+      </c>
+      <c r="C14">
+        <v>2.6361249187326002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>0.18747509856621</v>
+      </c>
+      <c r="C15">
+        <v>1.5486586678854299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>0.19107664440531999</v>
+      </c>
+      <c r="C16">
+        <v>4.2535766633424402E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>0.193243067625014</v>
+      </c>
+      <c r="C17">
+        <v>-7.0542098059516098E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>0.19434912644225999</v>
+      </c>
+      <c r="C18">
+        <v>-1.7932387944106402E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>0.194907851365968</v>
+      </c>
+      <c r="C19">
+        <v>-2.86694122617921E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>0.19460400147599</v>
+      </c>
+      <c r="C20">
+        <v>-3.9578528869413397E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>0.19331740275176401</v>
+      </c>
+      <c r="C21">
+        <v>-5.0213432661121597E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>0.19157591624641901</v>
+      </c>
+      <c r="C22">
+        <v>-6.06210715740894E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>0.18913397572316301</v>
+      </c>
+      <c r="C23">
+        <v>-7.1369197916861998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>0.185394083510355</v>
+      </c>
+      <c r="C24">
+        <v>-8.2073562930612395E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>0.18075386220140199</v>
+      </c>
+      <c r="C25">
+        <v>-9.2262961233874397E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>0.175325190907346</v>
+      </c>
+      <c r="C26">
+        <v>-0.102398790154295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>0.168396919271282</v>
+      </c>
+      <c r="C27">
+        <v>-0.11225232398396701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>0.16024852212431101</v>
+      </c>
+      <c r="C28">
+        <v>-0.120932914408435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>0.15153419282226099</v>
+      </c>
+      <c r="C29">
+        <v>-0.128642507703016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>0.14187616700303199</v>
+      </c>
+      <c r="C30">
+        <v>-0.13551865753338199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>0.13143841016471799</v>
+      </c>
+      <c r="C31">
+        <v>-0.140788404706989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>0.12113575457022301</v>
+      </c>
+      <c r="C32">
+        <v>-0.144541418142553</v>
       </c>
     </row>
   </sheetData>
@@ -869,55 +3254,396 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B9A72A-AFBC-4AAA-B967-401EB577ECDC}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>0.133306722872362</v>
+      </c>
+      <c r="C2">
+        <v>2.4616787303050801E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>0.14152366709261199</v>
+      </c>
+      <c r="C3">
+        <v>1.10267817280446E-2</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>0.14739271527021799</v>
+      </c>
+      <c r="C4">
+        <v>-2.6529573979111199E-3</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>0.15219075930978601</v>
+      </c>
+      <c r="C5">
+        <v>-1.59846230955225E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>0.15632213405880399</v>
+      </c>
+      <c r="C6">
+        <v>-2.9856691392845299E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>0.15932200220766499</v>
+      </c>
+      <c r="C7">
+        <v>-4.4149391907931997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>0.162030296251436</v>
+      </c>
+      <c r="C8">
+        <v>-5.8653355977091703E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>0.16468689176759499</v>
+      </c>
+      <c r="C9">
+        <v>-7.48236449249403E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>0.16579185981102801</v>
+      </c>
+      <c r="C10">
+        <v>-9.3148645558131904E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>0.16500278302565399</v>
+      </c>
+      <c r="C11">
+        <v>-0.112843770872585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.16239326262085599</v>
+      </c>
+      <c r="C12">
+        <v>-0.13459255249737101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>0.15614532912692999</v>
+      </c>
+      <c r="C13">
+        <v>-0.15874762921903199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>0.145114037243599</v>
+      </c>
+      <c r="C14">
+        <v>-0.183646424069278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>0.129647883609042</v>
+      </c>
+      <c r="C15">
+        <v>-0.20853118084383801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>0.108627733110645</v>
+      </c>
+      <c r="C16">
+        <v>-0.233254036584435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>8.0872729054172296E-2</v>
+      </c>
+      <c r="C17">
+        <v>-0.25547805567767001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>4.7482719931680198E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.27283159079043101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>9.4517221933275997E-3</v>
+      </c>
+      <c r="C19">
+        <v>-0.28426557355090298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>-3.2275499342710103E-2</v>
+      </c>
+      <c r="C20">
+        <v>-0.28781591339949703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>-7.48286257843261E-2</v>
+      </c>
+      <c r="C21">
+        <v>-0.28185504338183498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>-0.11494820273954701</v>
+      </c>
+      <c r="C22">
+        <v>-0.26680781863004599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>-0.15040261739906899</v>
+      </c>
+      <c r="C23">
+        <v>-0.24428979886331001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>-0.18000900369299599</v>
+      </c>
+      <c r="C24">
+        <v>-0.21595143071801701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>-0.20248581727982101</v>
+      </c>
+      <c r="C25">
+        <v>-0.183314784363723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>-0.21715056047624001</v>
+      </c>
+      <c r="C26">
+        <v>-0.14920189611843601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>-0.225633522333786</v>
+      </c>
+      <c r="C27">
+        <v>-0.115710588091735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>-0.22872335127690799</v>
+      </c>
+      <c r="C28">
+        <v>-8.2710864099859699E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>-0.22586545601729099</v>
+      </c>
+      <c r="C29">
+        <v>-5.1602634394077002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>-0.219019676414556</v>
+      </c>
+      <c r="C30">
+        <v>-2.4269300162759699E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>-0.210015085080305</v>
+      </c>
+      <c r="C31">
+        <v>4.54941655504328E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>-0.197853740459215</v>
+      </c>
+      <c r="C32">
+        <v>2.2854658486457201E-2</v>
       </c>
     </row>
   </sheetData>
@@ -928,55 +3654,396 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DDF351-8D87-4BAD-B17D-59B5706EA539}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>3.1955443649854198E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10638363402327999</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>3.6752448433862203E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.11534553050360399</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>4.1826997693181801E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.124309851514711</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1300</v>
+      </c>
+      <c r="B5">
+        <v>4.7441079337305098E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.133310277093389</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1400</v>
+      </c>
+      <c r="B6">
+        <v>5.37494546743481E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.14211445950013901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>6.0722649798308097E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.150603101899632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1600</v>
+      </c>
+      <c r="B8">
+        <v>6.8533478037931098E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.158666488198212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1700</v>
+      </c>
+      <c r="B9">
+        <v>7.7225954121788704E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.16582990466232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>8.6389501288663795E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.171762747339541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1900</v>
+      </c>
+      <c r="B11">
+        <v>9.5718090325762797E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.17646208341896499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.104933124500148</v>
+      </c>
+      <c r="C12">
+        <v>0.179770575035619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>0.113436056297283</v>
+      </c>
+      <c r="C13">
+        <v>0.18175124843864901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2200</v>
+      </c>
+      <c r="B14">
+        <v>0.120867597520861</v>
+      </c>
+      <c r="C14">
+        <v>0.18291547645508499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2300</v>
+      </c>
+      <c r="B15">
+        <v>0.12724689882169099</v>
+      </c>
+      <c r="C15">
+        <v>0.183676874618726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2400</v>
+      </c>
+      <c r="B16">
+        <v>0.132576064907132</v>
+      </c>
+      <c r="C16">
+        <v>0.18430059448088801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2500</v>
+      </c>
+      <c r="B17">
+        <v>0.13688608438529201</v>
+      </c>
+      <c r="C17">
+        <v>0.18516108337532899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>0.14047652055441201</v>
+      </c>
+      <c r="C18">
+        <v>0.18661464037707401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2700</v>
+      </c>
+      <c r="B19">
+        <v>0.14373466948197899</v>
+      </c>
+      <c r="C19">
+        <v>0.18868783383641299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2800</v>
+      </c>
+      <c r="B20">
+        <v>0.14676432337161799</v>
+      </c>
+      <c r="C20">
+        <v>0.19130702604245101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2900</v>
+      </c>
+      <c r="B21">
+        <v>0.14970991259633401</v>
+      </c>
+      <c r="C21">
+        <v>0.194652467560192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>0.15301198806605501</v>
+      </c>
+      <c r="C22">
+        <v>0.19868660907447599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3100</v>
+      </c>
+      <c r="B23">
+        <v>0.15679886211007599</v>
+      </c>
+      <c r="C23">
+        <v>0.203050440253571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3200</v>
+      </c>
+      <c r="B24">
+        <v>0.16097341669109499</v>
+      </c>
+      <c r="C24">
+        <v>0.20773498684921701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3300</v>
+      </c>
+      <c r="B25">
+        <v>0.16585657752226399</v>
+      </c>
+      <c r="C25">
+        <v>0.21276457562696799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3400</v>
+      </c>
+      <c r="B26">
+        <v>0.17163820166667099</v>
+      </c>
+      <c r="C26">
+        <v>0.21765459522973299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3500</v>
+      </c>
+      <c r="B27">
+        <v>0.17798493339765201</v>
+      </c>
+      <c r="C27">
+        <v>0.22213744574209299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3600</v>
+      </c>
+      <c r="B28">
+        <v>0.184867454467222</v>
+      </c>
+      <c r="C28">
+        <v>0.22634842995854401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3700</v>
+      </c>
+      <c r="B29">
+        <v>0.19247368361323899</v>
+      </c>
+      <c r="C29">
+        <v>0.22995723743639199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3800</v>
+      </c>
+      <c r="B30">
+        <v>0.20033709741867101</v>
+      </c>
+      <c r="C30">
+        <v>0.23256060490807101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3900</v>
+      </c>
+      <c r="B31">
+        <v>0.20802707749404001</v>
+      </c>
+      <c r="C31">
+        <v>0.234503311557716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>0.21579600213904601</v>
+      </c>
+      <c r="C32">
+        <v>0.23592120426229601</v>
       </c>
     </row>
   </sheetData>
@@ -986,6 +4053,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101009AC0F43FD9BF964199581D56114B4C27" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="2f94f6736a700a7c3f049d4376f1a16f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="af16c2e8-b6bd-4b6b-b669-c2f78501a31f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="712307dabef5912b330dea80102c9592" ns3:_="">
     <xsd:import namespace="af16c2e8-b6bd-4b6b-b669-c2f78501a31f"/>
@@ -1175,22 +4257,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C131489-7CCA-4670-8B56-C6A51A0F0CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="af16c2e8-b6bd-4b6b-b669-c2f78501a31f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B438D6D-30B2-4C3B-929E-B01871068A79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB2AC7F-7E56-4991-B160-76050505264E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1206,28 +4297,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B438D6D-30B2-4C3B-929E-B01871068A79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C131489-7CCA-4670-8B56-C6A51A0F0CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="af16c2e8-b6bd-4b6b-b669-c2f78501a31f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>